--- a/public/example_file_format/import_pengawas.xlsx
+++ b/public/example_file_format/import_pengawas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\tree_smart_coach\server\public\example_file_format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EE942C-BDEE-49C4-954D-E2B7B98C0981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9253E59-59DB-4724-9406-D7EC9295351D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="4245" windowWidth="21600" windowHeight="11235" xr2:uid="{B2D774C4-D753-48E6-AFFF-67F2A789F135}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B2D774C4-D753-48E6-AFFF-67F2A789F135}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
+    <t>NO</t>
+  </si>
+  <si>
     <t>NIP</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>NAMA</t>
+    <t>NAMA LENGKAP</t>
   </si>
   <si>
     <t>PANGKAT</t>
@@ -52,26 +52,26 @@
     <t>JABATAN</t>
   </si>
   <si>
+    <t>22222222222</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
     <t>Nama Pengawas</t>
   </si>
   <si>
-    <t>2222222</t>
+    <t>Pangkat</t>
   </si>
   <si>
-    <t>222111111</t>
-  </si>
-  <si>
-    <t>Pangkat Pengawas</t>
-  </si>
-  <si>
-    <t>JabatanPengawas</t>
+    <t>Jabatan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,17 +82,49 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,13 +139,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,130 +495,1475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031A990E-B660-496B-8B98-08672A403730}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E376"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="C13" s="3"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="13"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="13"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="13"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="13"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="8"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="13"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="8"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="9"/>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="9"/>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="9"/>
+    </row>
+    <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="9"/>
+    </row>
+    <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="8"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="8"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="8"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="8"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="8"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="8"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="8"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="8"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="8"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="8"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="8"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="8"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="8"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="8"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="8"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="8"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="8"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="8"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="8"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="8"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="8"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="8"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="8"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="8"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="8"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="8"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="8"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="8"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="8"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="8"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="8"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="8"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="8"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="8"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="8"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="8"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="8"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="8"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="8"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="8"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="8"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="8"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="8"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="8"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="8"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="8"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="8"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="8"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="8"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="8"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="8"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="8"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="8"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="8"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="8"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="8"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="8"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="8"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="8"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="8"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="8"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="8"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="8"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="8"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="8"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="8"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="8"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="8"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="8"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="8"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="8"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="8"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="8"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="8"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="8"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="8"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="8"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="8"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="8"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="8"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="8"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="8"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="8"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="8"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="8"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="8"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="8"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="8"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="8"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="8"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="8"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="8"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="8"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="8"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="8"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="8"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="8"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="8"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="8"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="8"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="8"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="8"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="8"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="8"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="8"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="8"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="8"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="8"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="8"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="8"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="8"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="8"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="8"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="8"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="8"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="8"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="8"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="8"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="8"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="8"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="8"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="8"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="8"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="8"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="8"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="8"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="8"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="8"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="8"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="8"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="8"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="8"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="8"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="8"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="8"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="8"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="8"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="8"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="8"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="8"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="8"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="8"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="8"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="8"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="8"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="8"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="8"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="8"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="8"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="8"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="8"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="8"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="8"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="8"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="8"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="8"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="8"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="8"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="8"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="8"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="8"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="8"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="8"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="8"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="8"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="8"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="8"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="8"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="8"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="8"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="8"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="8"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="8"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="8"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="8"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="8"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="8"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="8"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="8"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="8"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="8"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="8"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="8"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="8"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="8"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="8"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="8"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="8"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="8"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="8"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="8"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="8"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="8"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="8"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="8"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="8"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="8"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="8"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="8"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="8"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="8"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="8"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="8"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="8"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="8"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="8"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="8"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="8"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="8"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="8"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="8"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="8"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="8"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="8"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="8"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="8"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="8"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="8"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="8"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="8"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="8"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="8"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="8"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="8"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="8"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="8"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="8"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="8"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="8"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="8"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="8"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="8"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="8"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="8"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="8"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="8"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="8"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="8"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="8"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="8"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="8"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="8"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="8"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="8"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="8"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="8"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="8"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
